--- a/data.xlsx
+++ b/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aguasmzl-my.sharepoint.com/personal/ccquintero_aguasdemanizales_com_co/Documents/CCQuinteroR/UniversidadAM/Programacion/ejercicio1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\GitHub\MSprogramacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{27A24D87-E11E-4E7E-94A3-63D95BF2CC05}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D772A13E-A3A4-4A6E-AD73-65F703B2EA80}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" xr2:uid="{B883F056-6214-4846-A21F-51237EBC753A}"/>
   </bookViews>
@@ -426,8 +426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1CCB4A7-86A0-4D65-8A00-FDDB113FC5EB}">
   <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -847,7 +847,7 @@
         <v>1.0669999999999999</v>
       </c>
       <c r="L9">
-        <v>13.61</v>
+        <v>1.361</v>
       </c>
       <c r="M9">
         <v>1.675</v>
@@ -1121,18 +1121,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1155,6 +1155,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D055CF7C-EE12-41E5-9C57-05A3E35E8F89}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F02A3CB8-25E5-46C0-9473-A04E27B97A55}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -1169,12 +1177,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D055CF7C-EE12-41E5-9C57-05A3E35E8F89}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>